--- a/biology/Biologie cellulaire et moléculaire/ADN_glycosylase/ADN_glycosylase.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/ADN_glycosylase/ADN_glycosylase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les ADN glycosylase sont une famille d'enzymes de la famille des hydrolases qui hydrolysent la liaison N-glycosidique entre le désoxyribose et la base. Elles interviennent entre autres dans un des mécanismes de réparation de l'ADN, la réparation par excision de base, où elles clivent les bases modifiées par différents types de lésions chimiques. Elles ont été découvertes par Tomas Lindhal en 1975 lorsqu'il étudiait le processus particulier de réparation des uraciles dans l'ADN. Il a ainsi mis en évidence la première de ces enzymes à avoir été identifiée : l'uracile ADN-glycosylase.
-Il existe plusieurs ADN glycosylases classées en fonction de leurs substrats et de leur vitesse d’action[1] et elles sont identifiées par la nomenclature EC sous le nombre 3.2.2.
+Il existe plusieurs ADN glycosylases classées en fonction de leurs substrats et de leur vitesse d’action et elles sont identifiées par la nomenclature EC sous le nombre 3.2.2.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Mécanisme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les ADN glycosylases génèrent un site apurinique/apyrimidinique (site AP) en supprimant la base nucléique tout en laissant la structure sucre-phosphate intacte. Ces sites sont reconnus par l'enzyme AP endonucléase qui procède à la réparation.
 </t>
@@ -543,7 +557,9 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ogg1 (levure) ou hOgg1 (humain) retire la 8-oxo-guanine après l'exposition à des mutagènes.
 Uracile-ADN glycosylase (chez les procaryotes et les eucaryotes), supprime l'uracile de l'ADN.</t>
@@ -575,6 +591,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
